--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -525,34 +525,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25903962908076</v>
+        <v>1.298902666666667</v>
       </c>
       <c r="H2">
-        <v>1.25903962908076</v>
+        <v>3.896708</v>
       </c>
       <c r="I2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="J2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30670034898759</v>
+        <v>1.424769333333333</v>
       </c>
       <c r="N2">
-        <v>1.30670034898759</v>
+        <v>4.274308</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.645187522709035</v>
+        <v>1.850636686451555</v>
       </c>
       <c r="R2">
-        <v>1.645187522709035</v>
+        <v>16.655730178064</v>
       </c>
       <c r="S2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699016</v>
       </c>
       <c r="T2">
-        <v>0.7654375220389054</v>
+        <v>0.7196693520699017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,34 +587,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.385823070786684</v>
+        <v>0.5059576666666666</v>
       </c>
       <c r="H3">
-        <v>0.385823070786684</v>
+        <v>1.517873</v>
       </c>
       <c r="I3">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300983</v>
       </c>
       <c r="J3">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.30670034898759</v>
+        <v>1.424769333333333</v>
       </c>
       <c r="N3">
-        <v>1.30670034898759</v>
+        <v>4.274308</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5041551412444236</v>
+        <v>0.7208729674315554</v>
       </c>
       <c r="R3">
-        <v>0.5041551412444236</v>
+        <v>6.487856706883999</v>
       </c>
       <c r="S3">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300983</v>
       </c>
       <c r="T3">
-        <v>0.2345624779610947</v>
+        <v>0.2803306479300984</v>
       </c>
     </row>
   </sheetData>
